--- a/doc/objects/cat020.xlsx
+++ b/doc/objects/cat020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="464">
   <si>
     <t xml:space="preserve">Active</t>
   </si>
@@ -67,6 +67,10 @@
     <t xml:space="preserve">UCHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">From 010.SAC
+System Area Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">sac</t>
   </si>
   <si>
@@ -77,6 +81,10 @@
   </si>
   <si>
     <t xml:space="preserve">SIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 010.SIC
+System Identification Code</t>
   </si>
   <si>
     <t xml:space="preserve">sic</t>
@@ -140,6 +148,11 @@
     <t xml:space="preserve">DME</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.DME
+1 DME/TACAN multilateration
+0 no DME/TACAN multilateration</t>
+  </si>
+  <si>
     <t xml:space="preserve">dme_tacan</t>
   </si>
   <si>
@@ -162,6 +175,11 @@
     <t xml:space="preserve">GBS</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.GBS
+0 Transponder Ground bit not set
+1 Transponder Ground bit set</t>
+  </si>
+  <si>
     <t xml:space="preserve">ground_bit</t>
   </si>
   <si>
@@ -175,6 +193,11 @@
     <t xml:space="preserve">HF</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.HF
+1 HF multilateration
+0 no HF multilateration</t>
+  </si>
+  <si>
     <t xml:space="preserve">hf</t>
   </si>
   <si>
@@ -186,6 +209,11 @@
   </si>
   <si>
     <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 020.MS
+1 Mode-S 1090 MHz multilateration
+0 no Mode-S 1090 MHz multilateration</t>
   </si>
   <si>
     <t xml:space="preserve">ms</t>
@@ -240,6 +268,11 @@
     <t xml:space="preserve">SIM</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.SIM
+0 Actual target report
+1 Simulated target report</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulated</t>
   </si>
   <si>
@@ -253,6 +286,11 @@
     <t xml:space="preserve">SPI</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.SPI
+0 Absence of SPI
+1 Special Position Identification</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi</t>
   </si>
   <si>
@@ -266,6 +304,11 @@
     <t xml:space="preserve">SSR</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.SSR
+1 Non-Mode S 1090MHz multilateration
+0 no Non-Mode S 1090MHz multilat.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ssr</t>
   </si>
   <si>
@@ -282,6 +325,11 @@
     <t xml:space="preserve">TST</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.TST
+0 Default
+1 Test Target</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -295,6 +343,11 @@
     <t xml:space="preserve">UAT</t>
   </si>
   <si>
+    <t xml:space="preserve">From 020.UAT
+1 UAT multilateration
+0 no UAT multilateration</t>
+  </si>
+  <si>
     <t xml:space="preserve">uat</t>
   </si>
   <si>
@@ -306,6 +359,11 @@
   </si>
   <si>
     <t xml:space="preserve">VDL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 020.VDL4
+1 VDL Mode 4 multilateration
+0 no VDL Mode 4 multilateration</t>
   </si>
   <si>
     <t xml:space="preserve">vdl4</t>
@@ -349,7 +407,8 @@
     <t xml:space="preserve">DOUBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Position in WGS-84 Coordinates
+    <t xml:space="preserve">From 041.Latitude
+Position in WGS-84 Coordinates
 Range -90 &lt;= latitude &lt;= 90 deg.</t>
   </si>
   <si>
@@ -369,7 +428,8 @@
     <t xml:space="preserve">Lon</t>
   </si>
   <si>
-    <t xml:space="preserve">Position in WGS-84 Coordinates
+    <t xml:space="preserve">From 041.Longitude
+Position in WGS-84 Coordinates
 Range -180 &lt;= longitude &lt; 180 deg.</t>
   </si>
   <si>
@@ -388,7 +448,8 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Position in Cartesian Coordinates
+    <t xml:space="preserve">From 042.X
+Position in Cartesian Coordinates
 max range=+/-4194.3km (~2265 NM)
 </t>
   </si>
@@ -402,7 +463,8 @@
     <t xml:space="preserve">042.Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Position in Cartesian Coordinates
+    <t xml:space="preserve">From 042.Y
+Position in Cartesian Coordinates
 max range=+/-4194.3km (~2265 NM)</t>
   </si>
   <si>
@@ -464,6 +526,11 @@
     <t xml:space="preserve">MA G</t>
   </si>
   <si>
+    <t xml:space="preserve">From 070.G
+0 Default
+1 Garbled code</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_3a_garbled</t>
   </si>
   <si>
@@ -477,6 +544,11 @@
     <t xml:space="preserve">Mode 3/A Smoothed</t>
   </si>
   <si>
+    <t xml:space="preserve">From 070.L
+0 Mode-3/A code derived from the reply of the transponder
+1 Mode-3/A code not extracted during the last update period</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_3a_smoothed</t>
   </si>
   <si>
@@ -495,7 +567,8 @@
     <t xml:space="preserve">UINT</t>
   </si>
   <si>
-    <t xml:space="preserve">Mode-3/A Code</t>
+    <t xml:space="preserve">From 070.Mode-3/A code
+Mode-3/A Code</t>
   </si>
   <si>
     <t xml:space="preserve">mode_3_a_code</t>
@@ -510,7 +583,8 @@
     <t xml:space="preserve">MA V</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Code not validated
+    <t xml:space="preserve">From 070.V
+0 Code not validated
 1 Code validated</t>
   </si>
   <si>
@@ -532,7 +606,8 @@
     <t xml:space="preserve">FLOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Flight level in feet</t>
+    <t xml:space="preserve">From 090.Flight Level
+Flight level in feet</t>
   </si>
   <si>
     <t xml:space="preserve">Height:Feet</t>
@@ -550,6 +625,11 @@
     <t xml:space="preserve">MC G</t>
   </si>
   <si>
+    <t xml:space="preserve">From 090.G
+0 Default
+1 Garbled code</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_c_garbled</t>
   </si>
   <si>
@@ -560,6 +640,11 @@
   </si>
   <si>
     <t xml:space="preserve">MC V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 090.V
+0 Code not validated
+1 Code validated</t>
   </si>
   <si>
     <t xml:space="preserve">mode_c_valid</t>
@@ -590,16 +675,18 @@
     <t xml:space="preserve">Range= +/- 204 800 ft</t>
   </si>
   <si>
-    <t xml:space="preserve">Geometric Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height above WGS-84 ellipsoid in feet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geometric_height</t>
+    <t xml:space="preserve">Geometric Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 105.Geometric Height
+Height above WGS-84 ellipsoid in feet
+Renamed to match CAT062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometric_altitude</t>
   </si>
   <si>
     <t xml:space="preserve">110.Measured Height</t>
@@ -611,7 +698,8 @@
     <t xml:space="preserve">MH</t>
   </si>
   <si>
-    <t xml:space="preserve">Height above local 2D co-ordinate system in reference to the
+    <t xml:space="preserve">From 110.Measured Height
+Height above local 2D co-ordinate system in reference to the
 MLT System Reference Point as defined in item I019/610, in
 two’s complement form, based on a direct measurement not
 related to barometric pressure.</t>
@@ -632,7 +720,8 @@
     <t xml:space="preserve">ToD</t>
   </si>
   <si>
-    <t xml:space="preserve">Time of Day (1/128 sec from midnight)</t>
+    <t xml:space="preserve">From 140.Time of Day
+Time of Day (1/128 sec from midnight)</t>
   </si>
   <si>
     <t xml:space="preserve">time_of_day</t>
@@ -650,7 +739,8 @@
     <t xml:space="preserve">TN</t>
   </si>
   <si>
-    <t xml:space="preserve">An integer value representing a unique reference to a track
+    <t xml:space="preserve">From 161.Track Number
+An integer value representing a unique reference to a track
 record within a particular track file.</t>
   </si>
   <si>
@@ -672,7 +762,8 @@
     <t xml:space="preserve">CDM</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Maintaining
+    <t xml:space="preserve">From 170.CDM
+0 Maintaining
 1 Climbing
 2 Descending
 3 Invalid</t>
@@ -694,7 +785,8 @@
     <t xml:space="preserve">CNF</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Track in initiation phase
+    <t xml:space="preserve">From 170.CNF
+0 Track in initiation phase
 1 Confirmed track</t>
   </si>
   <si>
@@ -711,6 +803,11 @@
     <t xml:space="preserve">Track Coasted</t>
   </si>
   <si>
+    <t xml:space="preserve">From 170.CST
+0 Not extrapolated
+1 Extrapolated</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_coasted</t>
   </si>
   <si>
@@ -730,6 +827,11 @@
     <t xml:space="preserve">GHO</t>
   </si>
   <si>
+    <t xml:space="preserve">From 170.GHO
+0 Default
+1 Ghost track</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_ghost_target</t>
   </si>
   <si>
@@ -746,6 +848,11 @@
     <t xml:space="preserve">MAH</t>
   </si>
   <si>
+    <t xml:space="preserve">From 170.MAH
+0 Default
+1 Horizontal manoeuvre</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_horizontal_manoeuvre</t>
   </si>
   <si>
@@ -762,6 +869,11 @@
     <t xml:space="preserve">STH</t>
   </si>
   <si>
+    <t xml:space="preserve">From 170.STH
+0 Measured position
+1 Smoothed position</t>
+  </si>
+  <si>
     <t xml:space="preserve">smoothed_position</t>
   </si>
   <si>
@@ -778,6 +890,11 @@
     <t xml:space="preserve">TRE</t>
   </si>
   <si>
+    <t xml:space="preserve">From 170.TRE
+0 Default
+1 Last report for a track</t>
+  </si>
+  <si>
     <t xml:space="preserve">track_end</t>
   </si>
   <si>
@@ -793,7 +910,8 @@
     <t xml:space="preserve">Vx</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated Track Velocity in Cartesian Coordinates</t>
+    <t xml:space="preserve">From 202.Vx
+Calculated Track Velocity in Cartesian Coordinates</t>
   </si>
   <si>
     <t xml:space="preserve">vx</t>
@@ -803,6 +921,10 @@
   </si>
   <si>
     <t xml:space="preserve">Vy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 202.Vy
+Calculated Track Velocity in Cartesian Coordinates</t>
   </si>
   <si>
     <t xml:space="preserve">vy</t>
@@ -818,7 +940,8 @@
     <t xml:space="preserve">Ax</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated Acceleration of the target in m/s^2</t>
+    <t xml:space="preserve">From 210.Ax
+Calculated Acceleration of the target in m/s^2</t>
   </si>
   <si>
     <t xml:space="preserve">ax</t>
@@ -830,6 +953,10 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">From 210.Ay
+Calculated Acceleration of the target in m/s^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ay</t>
   </si>
   <si>
@@ -842,7 +969,8 @@
     <t xml:space="preserve">ACAD</t>
   </si>
   <si>
-    <t xml:space="preserve">24-bits Mode S address
+    <t xml:space="preserve">From 220.Target Address
+24-bits Mode S address
 </t>
   </si>
   <si>
@@ -866,7 +994,7 @@
     <t xml:space="preserve">STRING</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">From 230.AIC
 From 230.AIC
 Aircraft identification capability
 0 No
@@ -910,6 +1038,10 @@
     <t xml:space="preserve">B1A</t>
   </si>
   <si>
+    <t xml:space="preserve">From 230.B1A
+BDS 1,0 bit 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">b1a</t>
   </si>
   <si>
@@ -920,6 +1052,10 @@
   </si>
   <si>
     <t xml:space="preserve">B1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 230.B1B
+BDS 1,0 bits 37/40</t>
   </si>
   <si>
     <t xml:space="preserve">b1b</t>
@@ -943,6 +1079,16 @@
     <t xml:space="preserve">COM</t>
   </si>
   <si>
+    <t xml:space="preserve">From 230.COM
+Communications capability of the transponder
+0 No communications capability (surveillance only)
+1 Comm. A and Comm. B capability
+2 Comm. A, Comm. B and Uplink ELM
+3 Comm. A, Comm. B, Uplink ELM and Downlink ELM
+4 Level 5 Transponder capability
+5 to 7 Not assigned</t>
+  </si>
+  <si>
     <t xml:space="preserve">transponder_com_capability</t>
   </si>
   <si>
@@ -958,6 +1104,12 @@
   </si>
   <si>
     <t xml:space="preserve">MSSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 230.MSSC
+Mode-S Specific Service Capability
+0 No
+1 Yes</t>
   </si>
   <si>
     <t xml:space="preserve">mode_s_specific_service_capability</t>
@@ -983,6 +1135,18 @@
     <t xml:space="preserve">STAT</t>
   </si>
   <si>
+    <t xml:space="preserve">From 230.STAT
+Flight Status
+0 No alert, no SPI, aircraft airborne
+1 No alert, no SPI, aircraft on ground
+2 Alert, no SPI, aircraft airborne
+3 Alert, no SPI, aircraft on ground
+4 Alert, SPI, aircraft airborne or on ground
+5 No alert, SPI, aircraft airborne or on ground
+6– Not assigned 
+7 Information not yet extracted</t>
+  </si>
+  <si>
     <t xml:space="preserve">flight_status</t>
   </si>
   <si>
@@ -1023,13 +1187,29 @@
     <t xml:space="preserve">ACID</t>
   </si>
   <si>
-    <t xml:space="preserve">Aircraft identification</t>
+    <t xml:space="preserve">From 245.Target Identification
+Aircraft identification</t>
   </si>
   <si>
     <t xml:space="preserve">aircraft_identification</t>
   </si>
   <si>
-    <t xml:space="preserve">250.Mode S MB Data</t>
+    <t xml:space="preserve">250.Mode S MB Data.BDS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comm B Data Buffer Store 1 Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.Mode S MB Data.BDS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comm B Data Buffer Store 2 Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.Mode S MB Data.MB Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56-bit message conveying Mode S Comm B message data</t>
   </si>
   <si>
     <t xml:space="preserve">260.MB DATA</t>
@@ -1077,7 +1257,12 @@
 1 In Trouble</t>
   </si>
   <si>
-    <t xml:space="preserve">400.Contributing Receivers</t>
+    <t xml:space="preserve">400.Contributing Receivers.RUx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUx Contribution
+0 RUx has NOT contributed to the target detection
+1 RUx has contributed to the target detection</t>
   </si>
   <si>
     <t xml:space="preserve">500.DOP.DOP-x</t>
@@ -1170,7 +1355,16 @@
     <t xml:space="preserve">Age of the information transmitted in data item I020/070.</t>
   </si>
   <si>
-    <t xml:space="preserve">REF.DA.MBD.Mode S MB Data</t>
+    <t xml:space="preserve">REF.DA.MBD.Mode S MB Data.BDS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF.DA.MBD.Mode S MB Data.BDS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF.DA.MBD.Mode S MB Data.MBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of the information in the BDS report indicated in bits 16/9</t>
   </si>
   <si>
     <t xml:space="preserve">REF.DA.MC.MC</t>
@@ -1259,7 +1453,8 @@
     <t xml:space="preserve">X DoP</t>
   </si>
   <si>
-    <t xml:space="preserve">Dilution of Precision along x axis</t>
+    <t xml:space="preserve">From REF.PA.DOP.DOP-x
+Dilution of Precision along x axis</t>
   </si>
   <si>
     <t xml:space="preserve">x_dop</t>
@@ -1274,7 +1469,8 @@
     <t xml:space="preserve">X/Y DoP Cov</t>
   </si>
   <si>
-    <t xml:space="preserve">Dilution of Precision Covariance Component</t>
+    <t xml:space="preserve">From REF.PA.DOP.DOP-xy
+Dilution of Precision Covariance Component</t>
   </si>
   <si>
     <t xml:space="preserve">x_y_dop_cov</t>
@@ -1286,7 +1482,8 @@
     <t xml:space="preserve">Y DoP</t>
   </si>
   <si>
-    <t xml:space="preserve">Dilution of Precision along y axis</t>
+    <t xml:space="preserve">From REF.PA.DOP.DOP-y
+Dilution of Precision along y axis</t>
   </si>
   <si>
     <t xml:space="preserve">y_dop</t>
@@ -1301,7 +1498,8 @@
     <t xml:space="preserve">X/Y StdDev Cov</t>
   </si>
   <si>
-    <t xml:space="preserve">XY Covariance Component</t>
+    <t xml:space="preserve">From REF.PA.SDC.COV-XY (Covariance Component)
+XY Covariance Component</t>
   </si>
   <si>
     <t xml:space="preserve">x_y_stddev_cov</t>
@@ -1316,6 +1514,10 @@
     <t xml:space="preserve">X StdDev</t>
   </si>
   <si>
+    <t xml:space="preserve">From REF.PA.SDC.SDC (X-Component)
+Standard Deviation of Position of the target expressed in Cartesian coordinates</t>
+  </si>
+  <si>
     <t xml:space="preserve">x_stddev</t>
   </si>
   <si>
@@ -1325,6 +1527,10 @@
     <t xml:space="preserve">Y StdDev</t>
   </si>
   <si>
+    <t xml:space="preserve">From REF.PA.SDC.SDC (Y-Component)
+Standard Deviation of Position of the target expressed in Cartesian coordinates</t>
+  </si>
+  <si>
     <t xml:space="preserve">y_stddev</t>
   </si>
   <si>
@@ -1343,7 +1549,8 @@
     <t xml:space="preserve">Lat/Lon Cov</t>
   </si>
   <si>
-    <t xml:space="preserve">Lat/Long Covariance Component</t>
+    <t xml:space="preserve">From REF.PA.SDW.COV-WGS (Lat/Long Covariance Component)
+Lat/Long Covariance Component</t>
   </si>
   <si>
     <t xml:space="preserve">lat_lon_cov</t>
@@ -1361,6 +1568,10 @@
     <t xml:space="preserve">Lat StdDev</t>
   </si>
   <si>
+    <t xml:space="preserve">From REF.PA.SDW.SDW (Latitude Component)
+Standard Deviation of Position of the target expressed in WGS-84</t>
+  </si>
+  <si>
     <t xml:space="preserve">latitude_stddev</t>
   </si>
   <si>
@@ -1373,6 +1584,10 @@
     <t xml:space="preserve">Lon StdDev</t>
   </si>
   <si>
+    <t xml:space="preserve">From REF.PA.SDW.SDW (Longitude Component)
+Standard Deviation of Position of the target expressed in WGS-84</t>
+  </si>
+  <si>
     <t xml:space="preserve">longitude_stddev</t>
   </si>
   <si>
@@ -1388,7 +1603,8 @@
     <t xml:space="preserve">ARTAS Hash</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTAS MD5 Hash Code</t>
+    <t xml:space="preserve">From artas_md5
+ARTAS MD5 Hash Code</t>
   </si>
   <si>
     <t xml:space="preserve">artas_hash</t>
@@ -1400,7 +1616,8 @@
     <t xml:space="preserve">DS ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source ID</t>
+    <t xml:space="preserve">From ds_id
+Data Source ID</t>
   </si>
   <si>
     <t xml:space="preserve">rec_num</t>
@@ -1524,10 +1741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,7 +1756,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.54"/>
   </cols>
@@ -1576,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1593,33 +1810,33 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,25 +1844,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,133 +1870,133 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="54.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,22 +2004,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,1035 +2027,1035 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="75.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="106.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,561 +3063,510 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="157.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="146.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>302</v>
+        <v>330</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>342</v>
+        <v>372</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B106" s="1" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B109" s="1" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,204 +3574,296 @@
         <v>10</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B112" s="1" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>412</v>
+        <v>435</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>416</v>
+        <v>440</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>419</v>
+        <v>447</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>421</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
